--- a/kpi ca nhan/nam 2020/ketqua/tong ket.xlsx
+++ b/kpi ca nhan/nam 2020/ketqua/tong ket.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac365.vn/Downloads/kpi/kpi ca nhan/nam 2020/ketqua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/kpi/kpi ca nhan/nam 2020/ketqua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F04D1-C287-D948-84FF-1B2BC9675456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55FFFD-F302-F046-97C5-FA19C175B34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="21420" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1401,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="24">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="9"/>

--- a/kpi ca nhan/nam 2020/ketqua/tong ket.xlsx
+++ b/kpi ca nhan/nam 2020/ketqua/tong ket.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/kpi/kpi ca nhan/nam 2020/ketqua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsthanh\stupud_kpi\kpi ca nhan\nam 2020\ketqua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55FFFD-F302-F046-97C5-FA19C175B34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="21420" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="465" windowWidth="21420" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Trọn Quý" sheetId="7" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Trọn Quý'!$A$4:$HJ$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Trọn Quý'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -249,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +504,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
@@ -592,7 +591,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -703,23 +702,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -755,23 +737,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,30 +912,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
@@ -984,7 +949,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
@@ -998,7 +963,7 @@
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
     </row>
-    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>72</v>
       </c>
@@ -1010,7 +975,7 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1052,11 +1017,13 @@
       <c r="E5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="23">
+        <v>0.81</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1072,11 +1039,13 @@
       <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>0.82</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1093,12 +1062,12 @@
         <v>67</v>
       </c>
       <c r="F7" s="24">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1120,7 +1089,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1142,7 +1111,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1164,7 +1133,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -1186,7 +1155,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -1203,12 +1172,12 @@
         <v>68</v>
       </c>
       <c r="F12" s="24">
-        <v>0.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -1230,7 +1199,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1247,12 +1216,12 @@
         <v>68</v>
       </c>
       <c r="F14" s="24">
-        <v>0.89</v>
+        <v>0.46</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -1269,12 +1238,12 @@
         <v>67</v>
       </c>
       <c r="F15" s="24">
-        <v>0.89</v>
+        <v>0.43</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1296,7 +1265,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -1318,7 +1287,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -1340,7 +1309,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -1362,7 +1331,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -1384,7 +1353,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -1406,7 +1375,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -1428,7 +1397,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -1450,7 +1419,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -1467,12 +1436,12 @@
         <v>68</v>
       </c>
       <c r="F24" s="24">
-        <v>0.89</v>
+        <v>0.64</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -1489,12 +1458,12 @@
         <v>67</v>
       </c>
       <c r="F25" s="24">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -1511,12 +1480,12 @@
         <v>67</v>
       </c>
       <c r="F26" s="24">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -1538,7 +1507,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -1555,12 +1524,12 @@
         <v>68</v>
       </c>
       <c r="F28" s="24">
-        <v>0.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -1577,12 +1546,12 @@
         <v>68</v>
       </c>
       <c r="F29" s="24">
-        <v>0.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -1604,7 +1573,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1613,7 +1582,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>9</v>
       </c>
@@ -1653,7 +1622,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>